--- a/data_kppn/IKPA_KPPN_JANUARI_2025.xlsx
+++ b/data_kppn/IKPA_KPPN_JANUARI_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,37 +456,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Kualitas Perencanaan Anggaran</t>
+          <t>Revisi DIPA</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 5</t>
+          <t>Deviasi Halaman III DIPA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Kualitas Pelaksanaan Anggaran</t>
+          <t>Penyerapan Anggaran</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 7</t>
+          <t>Belanja Kontraktual</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 8</t>
+          <t>Penyelesaian Tagihan</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 9</t>
+          <t>Pengelolaan UP dan TUP</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Kualitas Hasil Pelaksanaan Anggaran</t>
+          <t>Capaian Output</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -517,53 +517,73 @@
       <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Tahun</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Peringkat</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Revisi DIPA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Deviasi Halaman III DIPA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Penyerapan Anggaran</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Belanja Kontraktual</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Penyelesaian Tagihan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Pengelolaan UP dan TUP</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Capaian Output</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BATURAJA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nilai</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>JANUARI</t>
@@ -572,187 +592,13 @@
       <c r="Q2" t="n">
         <v>2025</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Upload</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
         <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>109</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BATURAJA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Nilai</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L3" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>100</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>JANUARI</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Bobot</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>JANUARI</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Nilai Akhir</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" t="n">
-        <v>25</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>JANUARI</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Nilai Aspek</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>100</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>JANUARI</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>2025</v>
       </c>
     </row>
   </sheetData>

--- a/data_kppn/IKPA_KPPN_JANUARI_2025.xlsx
+++ b/data_kppn/IKPA_KPPN_JANUARI_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,80 +451,90 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Keterangan</t>
+          <t>Kualitas Perencanaan Anggaran</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Kualitas Pelaksanaan Anggaran</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Kualitas Hasil Pelaksanaan Anggaran</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Revisi DIPA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Deviasi Halaman III DIPA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Penyerapan Anggaran</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Belanja Kontraktual</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Penyelesaian Tagihan</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Pengelolaan UP dan TUP</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Capaian Output</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Nilai Total</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Konversi Bobot</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Dispensasi SPM (Pengurang)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Nilai Akhir (Nilai Total/Konversi Bobot)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Bulan</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Tahun</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Peringkat</t>
         </is>
@@ -544,10 +554,8 @@
           <t>BATURAJA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Nilai</t>
-        </is>
+      <c r="D2" t="n">
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -573,31 +581,33 @@
       <c r="L2" t="n">
         <v>100</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="M2" t="n">
+        <v>100</v>
       </c>
       <c r="N2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>100</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>JANUARI</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>2025</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Upload</t>
         </is>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1</v>
       </c>
     </row>
